--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_马丁组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andubu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version3.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁全组，纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -483,6 +495,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,9 +1104,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,6 +1130,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="165">
@@ -1624,7 +1650,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1640,7 +1666,7 @@
     <col min="9" max="9" width="14.875" style="20" customWidth="1"/>
     <col min="10" max="10" width="16.125" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="19" customWidth="1"/>
     <col min="13" max="13" width="10" style="20" customWidth="1"/>
     <col min="14" max="14" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.625" style="20" bestFit="1" customWidth="1"/>
@@ -1656,7 +1682,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1712,13 +1738,13 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1740,9 +1766,15 @@
       <c r="J2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
       <c r="P2" s="22"/>
@@ -1754,13 +1786,13 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -1782,9 +1814,15 @@
       <c r="J3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
+      <c r="K3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
@@ -1796,13 +1834,13 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1824,9 +1862,15 @@
       <c r="J4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
+      <c r="K4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
@@ -1838,13 +1882,13 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1866,9 +1910,15 @@
       <c r="J5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
+      <c r="K5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
@@ -1880,13 +1930,13 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A6" s="37">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1908,9 +1958,15 @@
       <c r="J6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
@@ -1922,13 +1978,13 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="18">
-      <c r="A7" s="37">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1950,23 +2006,29 @@
       <c r="J7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="35"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="37">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="34"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
@@ -1986,11 +2048,11 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -2010,11 +2072,11 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
@@ -2034,11 +2096,11 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
@@ -2058,11 +2120,11 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
@@ -2082,11 +2144,11 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -2096,7 +2158,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
       <c r="P13" s="22"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_马丁组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -196,11 +196,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在测</t>
+    <t>马丁全组，纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>马丁全组，纪维玉</t>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1650,7 +1658,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1770,13 +1778,17 @@
         <v>45</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="N2" s="13">
+        <v>42516</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
@@ -1818,13 +1830,17 @@
         <v>45</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="N3" s="13">
+        <v>42517</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
@@ -1866,13 +1882,17 @@
         <v>45</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="13">
+        <v>42518</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22" t="s">
@@ -1914,13 +1934,17 @@
         <v>45</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="13">
+        <v>42519</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22" t="s">
@@ -1962,13 +1986,17 @@
         <v>45</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="13">
+        <v>42520</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22" t="s">
@@ -2010,16 +2038,22 @@
         <v>45</v>
       </c>
       <c r="L7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="13">
+        <v>42521</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="S7" s="45"/>
       <c r="T7" s="10"/>
     </row>
